--- a/WorkBot/main/backend/orders/OrderFiles/Webstaurant/Webstaurant_BAKERY_20250301.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Webstaurant/Webstaurant_BAKERY_20250301.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,276 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>40862029</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>White Hot Chocolate - Ghirardelli</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>102.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>8808604CS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Torani - White Chocolate Sauce</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>205.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>8808605CS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Torani - Dark Chocolate Sauce</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>63.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>380.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>544SYPFR145F</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Monin - Toasted Marshmallow</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>189.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>544SYPFR061F</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Monin - Lavender</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>140.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>544SYPFROSTF</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Monin - Toffee Nut</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>227.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>544SYPFR034F</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Monin - Orange</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>35.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>544SYFR023K</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Monin - Hazelnut</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>38.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>38.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>544SYPAR012KT</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Monin - Cinnamon</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>40862028</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hot Chocolate (Bulk)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>123.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>123.47</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/WorkBot/main/backend/orders/OrderFiles/Webstaurant/Webstaurant_BAKERY_20250301.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Webstaurant/Webstaurant_BAKERY_20250301.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,6 +745,60 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>711SPRNKLERD</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sprinkles - Red</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>39.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>10207133</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Spice - Rosemary (dried)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>33.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>101.25</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/WorkBot/main/backend/orders/OrderFiles/Webstaurant/Webstaurant_BAKERY_20250301.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Webstaurant/Webstaurant_BAKERY_20250301.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,6 +799,168 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>433SLINERBL</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sheet Pan Liner - Silicone Coated</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>307.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>500CTOUT160</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Java Box (160oz)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>284.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>245CCGR2518</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Cake Board - Full Sheet (SO)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>54.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>54.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>245CCGR1914</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Cake Board - 1/2 Sheet</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>37.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>37.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>271241CUTC</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Mop Head Cut (White)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>52.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>245882WB</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Box Cake - 8x8x2.5 (window)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>66.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>66.49</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
